--- a/DTVT_BLUE/Results/Test_Results_NOK_RULE_DB_ROUTE_0003.xlsx
+++ b/DTVT_BLUE/Results/Test_Results_NOK_RULE_DB_ROUTE_0003.xlsx
@@ -22,7 +22,7 @@
     <t>Switchs</t>
   </si>
   <si>
-    <t>Point List</t>
+    <t>Point</t>
   </si>
   <si>
     <t>SDD List</t>
